--- a/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
+++ b/Input_data/IST_US_trad_eco_cal_2024-12-28_to_2025-01-21.xlsx
@@ -4820,7 +4820,11 @@
           <t>Fed Balance SheetJAN/08</t>
         </is>
       </c>
-      <c r="C159" t="inlineStr"/>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
       <c r="D159" t="inlineStr">
         <is>
           <t>$6.85T</t>
@@ -6858,7 +6862,11 @@
         </is>
       </c>
       <c r="C236" t="inlineStr"/>
-      <c r="D236" t="inlineStr"/>
+      <c r="D236" t="inlineStr">
+        <is>
+          <t>$6.85T</t>
+        </is>
+      </c>
       <c r="E236" t="inlineStr"/>
       <c r="F236" t="inlineStr"/>
       <c r="G236" t="inlineStr">
